--- a/dpp_app/data/PLS/parameter_metadata_PLS.xlsx
+++ b/dpp_app/data/PLS/parameter_metadata_PLS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/berenicegudino/Desktop/Code/dpp/dpp_app/data/PLS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beren\Code\dpp_smartpass\dpp_app\data\PLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93711FE-8E97-3443-9E98-FF1AA6F2AF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9420EB-0174-4D8D-BC70-1A30FA7A8AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3300" yWindow="-21080" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{F5499085-62E6-4B04-A4E2-EEF974C52419}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F5499085-62E6-4B04-A4E2-EEF974C52419}"/>
   </bookViews>
   <sheets>
     <sheet name="parameter_metadata" sheetId="4" r:id="rId1"/>
@@ -2122,17 +2122,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91110A29-C29E-1746-BC3B-9F1F909FD312}">
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="47.1640625" customWidth="1"/>
-    <col min="4" max="4" width="31.1640625" customWidth="1"/>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" customWidth="1"/>
+    <col min="9" max="10" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>parameter_metadata_original!A1</f>
         <v>category</v>
@@ -2178,7 +2180,7 @@
         <v>data model definition string</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>parameter_metadata_original!A3</f>
         <v>1. General product and manufacturer information</v>
@@ -2219,7 +2221,7 @@
         <v>{"Product ID": {"@type":"gs1:gtin","value": {"@value":"", "@type":"xsd:string"}}}</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>parameter_metadata_original!A2</f>
         <v>1. General product and manufacturer information</v>
@@ -2256,7 +2258,7 @@
         <v>{"DPP Created Timestamp" : {"value":{"@value":"", "@type":"xsd:dateTime"}}}</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>parameter_metadata_original!A22</f>
         <v>1. General battery and manufacturer information</v>
@@ -2297,7 +2299,7 @@
         <v>{"Battery category" : {"@type":"gs1:subBrandName", "value":{"@value":"", "@type":"rdf:langString"}}}</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>parameter_metadata_original!A21</f>
         <v>1. General battery and manufacturer information</v>
@@ -2338,7 +2340,7 @@
         <v>{"Manufacturer identifier and information" : {"@type":"gs1:pip", "value":{"@value":"", "@type":"xsd:anyURI"}}}</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>parameter_metadata_original!A4</f>
         <v>1. General product and manufacturer information</v>
@@ -2375,7 +2377,7 @@
         <v>{"Manufacturing date": {"@type":"gs1:productionDateTime", "value": {"@value":"", "@type":"xsd:dateTime"}}}</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>parameter_metadata_original!A5</f>
         <v>1. General product and manufacturer information</v>
@@ -2416,7 +2418,7 @@
         <v>{"Manufactured by": {"@type":"gs1:organizationName", "value": {"@value": "", "@type":"xsd:string"}}}</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>parameter_metadata_original!A6</f>
         <v>1. General product and manufacturer information</v>
@@ -2457,7 +2459,7 @@
         <v>{"Manufacturing place" : {"@type":"gs1:address", "City": {"@type":"gs1:addressLocality", "value":{"@value": "", "@type":"xsd:string"}} , "Address":{"@type":"gs1:streetAddress",  "value":{"@value": "", "@type":"xsd:string"}}}}</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>parameter_metadata_original!A7</f>
         <v>1. General product and manufacturer information</v>
@@ -2494,7 +2496,7 @@
         <v>{"Product category" : {"@type":"gs1:brandName", "value":{"@value":"", "@type":"rdf:langString"}}}</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>parameter_metadata_original!A8</f>
         <v>1. General product and manufacturer information</v>
@@ -2535,7 +2537,7 @@
         <v>{"Economic operator" : {"@type":"schema:legalName",  "value": {"@value":"", "@type":"xsd:string"}}}</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>parameter_metadata_original!A27</f>
         <v>1. General battery and manufacturer information</v>
@@ -2576,7 +2578,7 @@
         <v>{"BESS ID" : {"value":{"@value":"", "@type":"xsd:string"}}}</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>parameter_metadata_original!A28</f>
         <v>1. General battery and manufacturer information</v>
@@ -2621,7 +2623,7 @@
         <v>{"Module dimension":{"Height" : {"@type":"gs1:outOfPackageHeight", "value":{"@value":"", "@type":"xsd:float", "unitCode": "MMT"}}, "Width" : {"@type":"gs1:inPackageWidth", "value":{"@value":"", "@type":"xsd:float", "unitCode": "MMT"}}, "Depth" : {"@type":"gs1:inPackageDepth", "value":{"@value":"", "@type":"xsd:float", "unitCode": "MMT"}}}}</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>parameter_metadata_original!A29</f>
         <v>1. General battery and manufacturer information</v>
@@ -2662,7 +2664,7 @@
         <v>{"Module weight" : {"value":{"@value":"", "@type":"xsd:float", "unitCode":"KGM"}}}</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>parameter_metadata_original!A30</f>
         <v>1. General battery and manufacturer information</v>
@@ -2703,7 +2705,7 @@
         <v>{"Total module weight in pack" : {"value":{"@value":"", "@type":"xsd:float", "unitCode":"KGM"}}}</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>parameter_metadata_original!A14</f>
         <v>1. General product and manufacturer information</v>
@@ -2744,7 +2746,7 @@
         <v>{"Dimensions":{"Height" : {"@type":"gs1:outOfPackageHeight", "value":{"@value":"", "@type":"xsd:float", "unitCode": "MMT"}}, "Width" : {"@type":"gs1:inPackageWidth", "value":{"@value":"", "@type":"xsd:float", "unitCode": "MMT"}}, "Depth" : {"@type":"gs1:inPackageDepth", "value":{"@value":"", "@type":"xsd:float", "unitCode": "MMT"}}}}</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>parameter_metadata_original!A33</f>
         <v>2. Compliance, labels and certifications</v>
@@ -2785,7 +2787,7 @@
         <v>{"Results of test reports proving compliance with this Regulation" : {"@type":"gs1:pip", "value":{"@value":"", "@type":"xsd:anyURI"}}}</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>parameter_metadata_original!A34</f>
         <v>3. Carbon footprint</v>
@@ -2826,7 +2828,7 @@
         <v>{"Battery carbon footprint" : {"value":{"@value":"", "@type":"xsd:float"}}}</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>parameter_metadata_original!A15</f>
         <v>3. Carbon footprint</v>
@@ -2863,7 +2865,7 @@
         <v>{"Carbon footprint (Cradle to gate)" : {"value":{"@value":"", "@type":"xsd:float"}}}</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>parameter_metadata_original!A40</f>
         <v>4. Supply Chain Due Diligence</v>
@@ -2904,7 +2906,7 @@
         <v>{"Information of the due diligence report" : {"@type":"gs1:pip", "value":{"@value":"", "@type":"xsd:anyURI"}}}</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>parameter_metadata_original!A41</f>
         <v>5. Battery Material and composition</v>
@@ -2945,7 +2947,7 @@
         <v>{"Battery chemistry" : {"value":{"@value":"", "@type":"xsd:string"}}}</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>parameter_metadata_original!A43</f>
         <v>5. Battery Material and composition</v>
@@ -2986,7 +2988,7 @@
         <v>{"Hazardous substances, other than Hg, Cd, Pb" : {"@type":"gs1:ReferencedFileTypeCode-HAZARDOUS_SUBSTANCES_DATA", "value": {"@type":"gs1:pip", "value":{"@value":"", "@type":"xsd:anyURI"}}}}</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>parameter_metadata_original!A18</f>
         <v>5. Battery Material and composition</v>
@@ -3027,7 +3029,7 @@
         <v>{"Hazardous substances content" : {"@type":"gs1:ReferencedFileTypeCode-HAZARDOUS_SUBSTANCES_DATA", "value": {"@type":"gs1:pip", "value":{"@value":"", "@type":"xsd:anyURI"}}}}</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>parameter_metadata_original!A17</f>
         <v>6. Circularity and resource efficiency</v>
@@ -3064,7 +3066,7 @@
         <v>{"Recycled content [% of original weight]" : {"value":{"@value":"", "@type":"xsd:float",  "unitCode":"P1"}}}</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>parameter_metadata_original!A16</f>
         <v>6. Circularity and resource efficiency</v>
@@ -3101,7 +3103,7 @@
         <v>{"Recycled content [kg]" : {"value":{"@value":"", "@type":"xsd:float", "unitCode":"KGM"}}}</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>parameter_metadata_original!A19</f>
         <v>6. Circularity and resource efficiency</v>
@@ -3138,7 +3140,7 @@
         <v>{"The share of renewable content" : {"value":{"@value":"", "@type":"xsd:float"}}}</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>parameter_metadata_original!A20</f>
         <v>6. Circularity and resource efficiency</v>
@@ -3179,7 +3181,7 @@
         <v>{"Contact details for spare parts" : {"@type":"gs1:pip", "value":{"@value":"", "@type":"xsd:anyURI"}}}</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>parameter_metadata_original!A45</f>
         <v>6. Circularity and resource efficiency</v>
@@ -3220,7 +3222,7 @@
         <v>{"Pre-consumer recycled nickel share" : {"value":{"@value":"", "@type":"xsd:float",  "unitCode":"P1"}}}</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>parameter_metadata_original!A46</f>
         <v>6. Circularity and resource efficiency</v>
@@ -3261,7 +3263,7 @@
         <v>{"Pre-consumer  recycled cobolt share" : {"value":{"@value":"", "@type":"xsd:float",  "unitCode":"P1"}}}</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>parameter_metadata_original!A47</f>
         <v>6. Circularity and resource efficiency</v>
@@ -3302,7 +3304,7 @@
         <v>{"Pre-consumer recycled lithium share" : {"value":{"@value":"", "@type":"xsd:float",  "unitCode":"P1"}}}</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f>parameter_metadata_original!A48</f>
         <v>6. Circularity and resource efficiency</v>
@@ -3343,7 +3345,7 @@
         <v>{"Pre-consumer recycled lead share" : {"value":{"@value":"", "@type":"xsd:float",  "unitCode":"P1"}}}</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f>parameter_metadata_original!A49</f>
         <v>6. Circularity and resource efficiency</v>
@@ -3384,7 +3386,7 @@
         <v>{"Post-consumer recycled nickel share" : {"value":{"@value":"", "@type":"xsd:float",  "unitCode":"P1"}}}</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f>parameter_metadata_original!A50</f>
         <v>6. Circularity and resource efficiency</v>
@@ -3425,7 +3427,7 @@
         <v>{"Post-consumer recycled cobolt share" : {"value":{"@value":"", "@type":"xsd:float",  "unitCode":"P1"}}}</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f>parameter_metadata_original!A51</f>
         <v>6. Circularity and resource efficiency</v>
@@ -3466,7 +3468,7 @@
         <v>{"Post-consumer recycled lithium share" : {"value":{"@value":"", "@type":"xsd:float",  "unitCode":"P1"}}}</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f>parameter_metadata_original!A52</f>
         <v>6. Circularity and resource efficiency</v>
@@ -3507,7 +3509,7 @@
         <v>{"Post-consumer recycled lead share" : {"value":{"@value":"", "@type":"xsd:float",  "unitCode":"P1"}}}</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f>parameter_metadata_original!A53</f>
         <v>6. Circularity and resource efficiency</v>
@@ -3544,7 +3546,7 @@
         <v>{"Renewable content share" : {"value":{"@value":"", "@type":"xsd:float",  "unitCode":"P1"}}}</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f>parameter_metadata_original!A59</f>
         <v>6. Circularity and resource efficiency</v>
@@ -3585,7 +3587,7 @@
         <v>{"Part numbers for spare parts components" : {"@type":"gs1:pip", "value":{"@value":"", "@type":"xsd:anyURI"}}}</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f>parameter_metadata_original!A60</f>
         <v>6. Circularity and resource efficiency</v>
@@ -3622,7 +3624,7 @@
         <v>{"Information on sources of spare parts" : {"value":{"@value":"", "@type":"xsd:string"}}}</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f>parameter_metadata_original!A61</f>
         <v>6. Circularity and resource efficiency</v>
@@ -3663,7 +3665,7 @@
         <v>{"Dismantling information" : {"@type":"gs1:pip", "value":{"@value":"", "@type":"xsd:anyURI"}}}</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f>parameter_metadata_original!A62</f>
         <v>6. Circularity and resource efficiency</v>
@@ -3704,7 +3706,7 @@
         <v>{"Safety measures/instructions" : {"@type":"gs1:pip", "value":{"@value":"", "@type":"xsd:anyURI"}}}</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f>parameter_metadata_original!A63</f>
         <v>7. Performance</v>
@@ -3745,7 +3747,7 @@
         <v>{"Rated Capacity" : {"@type":"gs1:Power", "value":{"@value":"", "@type":"xsd:float", "unitCode":"KWH"}}}</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f>parameter_metadata_original!A64</f>
         <v>7. Performance</v>
@@ -3786,7 +3788,7 @@
         <v>{"Certified Useable Battery Energy BoL" : {"@type":"gs1:Power", "value":{"@value":"", "@type":"xsd:float", "unitCode":"KWH"}}}</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f>parameter_metadata_original!A65</f>
         <v>7. Performance</v>
@@ -3833,7 +3835,7 @@
         <v>{"Min, Nominal and Max voltage":{"Min" : {"@type":"gs1:Voltage", "value":{"@value":"", "@type":"xsd:float", "unitCode": "VLT"}}, "Nominal" : {"@type":"gs1:Voltage", "value":{"@value":"", "@type":"xsd:float", "unitCode": "VLT"}}, "Max" : {"@type":"gs1:Voltage", "value":{"@value":"", "@type":"xsd:float", "unitCode": "VLT"}}}}</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f>parameter_metadata_original!A66</f>
         <v>7. Performance</v>
@@ -3874,7 +3876,7 @@
         <v>{"Original power capability and limits" : {"@type":"gs1:Power", "value":{"@value":"", "@type":"xsd:float", "unitCode":"KWH"}}}</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f>parameter_metadata_original!A68</f>
         <v>7. Performance</v>
@@ -3915,7 +3917,7 @@
         <v>{"Ratio between nominal battery power and battery energy" : {"value":{"@value":"", "@type":"xsd:float"}}}</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f>parameter_metadata_original!A69</f>
         <v>7. Performance</v>
@@ -3956,7 +3958,7 @@
         <v>{"Initial self-discharging rate" : {"value":{"@value":"", "@type":"xsd:float"}}}</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f>parameter_metadata_original!A70</f>
         <v>7. Performance</v>
@@ -3997,7 +3999,7 @@
         <v>{"Initial internal resistance on cell level" : {"@type":"gs1:Power", "value":{"@value":"", "@type":"xsd:float", "unitCode":"E45"}}}</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f>parameter_metadata_original!A73</f>
         <v>7. Performance</v>
@@ -4038,7 +4040,7 @@
         <v>{"Intial round trip energy efficiency" : {"value":{"@value":"", "@type":"xsd:float"}}}</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f>parameter_metadata_original!A87</f>
         <v>8. Durability</v>
@@ -4079,7 +4081,7 @@
         <v>{"Expected lifetime: Number of charge-discharge cycles" : {"value":{"@value":"", "@type":"xsd:float"}}}</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f>parameter_metadata_original!A89</f>
         <v>8. Durability</v>
@@ -4120,7 +4122,7 @@
         <v>{"C-rate of relevant cycle-life test" : {"value":{"@value":"", "@type":"xsd:float"}}}</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f>parameter_metadata_original!A90</f>
         <v>8. Durability</v>
@@ -4161,7 +4163,7 @@
         <v>{"Warranty period of the battery" : {"value":{"@value":"", "@type":"xsd:float"}}}</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f>parameter_metadata_original!A92</f>
         <v>8. Durability</v>
@@ -4202,7 +4204,7 @@
         <v>{"Results of tests reports" : {"@type":"gs1:pip", "value":{"@value":"", "@type":"xsd:anyURI"}}}</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f>parameter_metadata_original!A94</f>
         <v>8. Durability</v>
@@ -4243,7 +4245,7 @@
         <v>{"Date of putting into service" : {"value":{"@value":"", "@type":"xsd:dateTime"}}}</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f>parameter_metadata_original!A9</f>
         <v>9. Product Updates</v>
@@ -4284,7 +4286,7 @@
         <v>{"Update ID" : { "value": {"@value":"", "@type":"xsd:string"}}}</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f>parameter_metadata_original!A10</f>
         <v>9. Product Updates</v>
@@ -4321,7 +4323,7 @@
         <v>{"DPP Update Timestamp" : {"@type":"schema:startTime", "value":{"@type":"schema:DateTime", "value": {"@value":"", "@type":"xsd:dateTime"}}}}</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f>parameter_metadata_original!A11</f>
         <v>9. Product Updates</v>
@@ -4358,7 +4360,7 @@
         <v>{"DPP Update Reason" :  {"@type":"schema:description", "value":{"@type":"schema:Text", "value": {"@value":"", "@type":"xsd:string"}}}}</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f>parameter_metadata_original!A12</f>
         <v>9. Product Updates</v>
@@ -4399,7 +4401,7 @@
         <v>{"DPP Update Responsible" :  {"@type":"schema:Organization", "value":{"@type":"schema:legalName", "value": {"@value":"", "@type":"xsd:string"}}}}</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f>parameter_metadata_original!A23</f>
         <v>9. Product Updates</v>
@@ -4440,7 +4442,7 @@
         <v>{"Battery status" : {"value":{"@value":"", "@type":"xsd:string"}}}</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f>parameter_metadata_original!A13</f>
         <v>9. Product Updates</v>
@@ -4477,7 +4479,7 @@
         <v>{"Original weight" : {"value":{"@value":"", "@type":"xsd:float", "unitCode":"KGM"}}}</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f>parameter_metadata_original!A24</f>
         <v>9. Product Updates</v>
@@ -4514,7 +4516,7 @@
         <v>{"Donor data expressed in the DPP portal: Original DPPs (parent packs)" : {"value":{"@value":"", "@type":"xsd:string"}}}</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f>parameter_metadata_original!A25</f>
         <v>9. Product Updates</v>
@@ -4555,7 +4557,7 @@
         <v>{"Donor data expressed in the DPP portal: Module serial numbers" : {"value":{"@value":"", "@type":"xsd:string"}}}</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f>parameter_metadata_original!A26</f>
         <v>9. Product Updates</v>
@@ -4592,7 +4594,7 @@
         <v>{"Repurposed Pack ID" : {"value":{"@value":"", "@type":"xsd:string"}}}</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f>parameter_metadata_original!A76</f>
         <v>9. Product Updates</v>
@@ -4633,7 +4635,7 @@
         <v>{"Remaining capacity (useable, available)" : {"@type":"gs1:Power", "value":{"@value":"", "@type":"xsd:float", "unitCode":"KWH"}}}</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f>parameter_metadata_original!A79</f>
         <v>9. Product Updates</v>
@@ -4674,7 +4676,7 @@
         <v>{"State of Charge (SOC)" : {"value":{"@value":"", "@type":"xsd:float"}}}</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f>parameter_metadata_original!A81</f>
         <v>9. Product Updates</v>
@@ -4715,7 +4717,7 @@
         <v>{"Remaining power capability" : {"@type":"gs1:Power", "value":{"@value":"", "@type":"xsd:float", "unitCode":"KWT"}}}</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f>parameter_metadata_original!A85</f>
         <v>9. Product Updates</v>
@@ -4756,7 +4758,7 @@
         <v>{"Current Internal resistance (pack)" : {"@type":"gs1:Power", "value":{"@value":"", "@type":"xsd:float"}}}</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f>parameter_metadata_original!A86</f>
         <v>9. Product Updates</v>
@@ -4797,7 +4799,7 @@
         <v>{"Internal resistance increase (pack)" : {"@type":"gs1:Power", "value":{"@value":"", "@type":"xsd:float"}}}</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f>parameter_metadata_original!A98</f>
         <v>9. Product Updates</v>
@@ -4838,7 +4840,7 @@
         <v>{"Current number of (full) charging and discharging cycles" : {"value":{"@value":"", "@type":"xsd:float"}}}</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f>parameter_metadata_original!A105</f>
         <v>9. Product Updates</v>
@@ -4879,7 +4881,7 @@
         <v>{"State of Health (SOH)" : {"value":{"@value":"", "@type":"xsd:float",  "unitCode":"P1"}}}</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f>parameter_metadata_original!A107</f>
         <v>9. Product Updates</v>
@@ -4916,7 +4918,7 @@
         <v>{"SOH Timestamp" : {"value":{"@value":"", "@type":"xsd:dateTime"}}}</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f>parameter_metadata_original!A108</f>
         <v>9. Product Updates</v>
@@ -4957,7 +4959,7 @@
         <v>{"Expected remaining battery lifetime expressed in cycles " : {"value":{"@value":"", "@type":"xsd:float"}}}</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f>parameter_metadata_original!A109</f>
         <v>9. Product Updates</v>
@@ -4998,7 +5000,7 @@
         <v>{"Negative events" : {"@type":"schema:Text", "value": {"@value":"", "@type":"xsd:string"}}}</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f>parameter_metadata_original!A110</f>
         <v>9. Product Updates</v>
@@ -5039,7 +5041,7 @@
         <v>{"Service  log" : {"@type":"schema:Text", "value": {"@value":"", "@type":"xsd:string"}}}</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f>parameter_metadata_original!A111</f>
         <v>9. Product Updates</v>
@@ -5101,21 +5103,21 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.5" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="45" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="96.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="96.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5150,7 +5152,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -5173,7 +5175,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -5199,7 +5201,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -5222,7 +5224,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -5248,7 +5250,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -5274,7 +5276,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -5297,7 +5299,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -5323,7 +5325,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>272</v>
       </c>
@@ -5352,7 +5354,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>272</v>
       </c>
@@ -5375,7 +5377,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>272</v>
       </c>
@@ -5398,7 +5400,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>272</v>
       </c>
@@ -5424,7 +5426,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>272</v>
       </c>
@@ -5447,7 +5449,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -5473,7 +5475,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -5496,7 +5498,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -5519,7 +5521,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -5542,7 +5544,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -5571,7 +5573,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -5594,7 +5596,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -5623,7 +5625,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -5656,7 +5658,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -5689,7 +5691,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>272</v>
       </c>
@@ -5722,7 +5724,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>272</v>
       </c>
@@ -5750,7 +5752,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>272</v>
       </c>
@@ -5783,7 +5785,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>272</v>
       </c>
@@ -5811,7 +5813,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -5844,7 +5846,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -5879,7 +5881,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -5912,7 +5914,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -5945,7 +5947,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -5973,7 +5975,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -5999,7 +6001,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -6032,7 +6034,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -6065,7 +6067,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -6096,7 +6098,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -6127,7 +6129,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -6152,7 +6154,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -6178,7 +6180,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -6204,7 +6206,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -6237,7 +6239,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -6270,7 +6272,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -6301,7 +6303,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -6333,7 +6335,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -6364,7 +6366,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>36</v>
       </c>
@@ -6397,7 +6399,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>36</v>
       </c>
@@ -6430,7 +6432,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>36</v>
       </c>
@@ -6463,7 +6465,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>36</v>
       </c>
@@ -6496,7 +6498,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>36</v>
       </c>
@@ -6529,7 +6531,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>36</v>
       </c>
@@ -6562,7 +6564,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -6595,7 +6597,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>36</v>
       </c>
@@ -6628,7 +6630,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>36</v>
       </c>
@@ -6658,7 +6660,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>36</v>
       </c>
@@ -6689,7 +6691,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>36</v>
       </c>
@@ -6720,7 +6722,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>36</v>
       </c>
@@ -6737,7 +6739,7 @@
       <c r="I56" s="13"/>
       <c r="J56" s="6"/>
     </row>
-    <row r="57" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>36</v>
       </c>
@@ -6754,7 +6756,7 @@
       <c r="I57" s="13"/>
       <c r="J57" s="6"/>
     </row>
-    <row r="58" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>36</v>
       </c>
@@ -6771,7 +6773,7 @@
       <c r="I58" s="13"/>
       <c r="J58" s="6"/>
     </row>
-    <row r="59" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>36</v>
       </c>
@@ -6804,7 +6806,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>36</v>
       </c>
@@ -6832,7 +6834,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>36</v>
       </c>
@@ -6865,7 +6867,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>36</v>
       </c>
@@ -6898,7 +6900,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>48</v>
       </c>
@@ -6931,7 +6933,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>48</v>
       </c>
@@ -6964,7 +6966,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>48</v>
       </c>
@@ -6999,7 +7001,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>48</v>
       </c>
@@ -7032,7 +7034,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>48</v>
       </c>
@@ -7063,7 +7065,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>48</v>
       </c>
@@ -7096,7 +7098,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>48</v>
       </c>
@@ -7129,7 +7131,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>48</v>
       </c>
@@ -7162,7 +7164,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>48</v>
       </c>
@@ -7193,7 +7195,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>48</v>
       </c>
@@ -7224,7 +7226,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>48</v>
       </c>
@@ -7257,7 +7259,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>48</v>
       </c>
@@ -7288,7 +7290,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>272</v>
       </c>
@@ -7319,7 +7321,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>272</v>
       </c>
@@ -7352,7 +7354,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>272</v>
       </c>
@@ -7383,7 +7385,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>272</v>
       </c>
@@ -7414,7 +7416,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>272</v>
       </c>
@@ -7447,7 +7449,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>272</v>
       </c>
@@ -7478,7 +7480,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>272</v>
       </c>
@@ -7511,7 +7513,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>272</v>
       </c>
@@ -7542,7 +7544,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>272</v>
       </c>
@@ -7573,7 +7575,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>272</v>
       </c>
@@ -7604,7 +7606,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>272</v>
       </c>
@@ -7637,7 +7639,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>272</v>
       </c>
@@ -7670,7 +7672,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>49</v>
       </c>
@@ -7703,7 +7705,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>49</v>
       </c>
@@ -7729,7 +7731,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>49</v>
       </c>
@@ -7762,7 +7764,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>49</v>
       </c>
@@ -7795,7 +7797,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>49</v>
       </c>
@@ -7826,7 +7828,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>49</v>
       </c>
@@ -7859,7 +7861,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>49</v>
       </c>
@@ -7890,7 +7892,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>49</v>
       </c>
@@ -7923,7 +7925,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>49</v>
       </c>
@@ -7954,7 +7956,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>49</v>
       </c>
@@ -7985,7 +7987,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>49</v>
       </c>
@@ -8015,7 +8017,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>272</v>
       </c>
@@ -8044,7 +8046,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>272</v>
       </c>
@@ -8071,7 +8073,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>272</v>
       </c>
@@ -8098,7 +8100,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>272</v>
       </c>
@@ -8125,7 +8127,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>272</v>
       </c>
@@ -8152,7 +8154,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>272</v>
       </c>
@@ -8179,7 +8181,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>272</v>
       </c>
@@ -8206,7 +8208,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>272</v>
       </c>
@@ -8236,7 +8238,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>272</v>
       </c>
@@ -8259,7 +8261,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>272</v>
       </c>
@@ -8284,7 +8286,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>272</v>
       </c>
@@ -8313,7 +8315,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>272</v>
       </c>
@@ -8343,7 +8345,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>272</v>
       </c>
@@ -8372,7 +8374,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>272</v>
       </c>
@@ -8449,18 +8451,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59132617-946A-49E3-AD77-F1AA979B4F46}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.5" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8471,7 +8473,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -8482,7 +8484,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -8493,7 +8495,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -8504,7 +8506,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -8515,7 +8517,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -8526,7 +8528,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -8537,7 +8539,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -8548,7 +8550,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -8559,7 +8561,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -8570,7 +8572,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>272</v>
       </c>
@@ -8594,13 +8596,13 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -8608,7 +8610,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -8616,7 +8618,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -8624,7 +8626,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -8632,7 +8634,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -8640,7 +8642,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -8648,7 +8650,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -8656,7 +8658,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -8664,7 +8666,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -8672,7 +8674,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -8680,7 +8682,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>272</v>
       </c>
